--- a/video_prediction/media/results/detection_and_analysis_results_yolov8x.xlsx
+++ b/video_prediction/media/results/detection_and_analysis_results_yolov8x.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6598942952023612</v>
+        <v>0.684879696646402</v>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8219432612744774</v>
+        <v>0.8089910248915354</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8161948064099187</v>
+        <v>0.7220061106243353</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5848971425459303</v>
+        <v>0.6063535745079452</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -557,14 +557,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4675817688306173</v>
+        <v>0.8096002170017788</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7135737943821229</v>
+        <v>0.7214509546756744</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7062200034658114</v>
+        <v>0.6714094579219818</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
@@ -683,14 +683,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3573220794399579</v>
+        <v>0.7069551710571561</v>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6192778293733243</v>
+        <v>0.6741778448570607</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4760241157868329</v>
+        <v>0.5945865168021276</v>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -733,32 +733,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>obj_id_54</t>
+          <t>obj_id_52</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6361201604207357</v>
+        <v>0.7149575583893677</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>obj_id_55</t>
+          <t>obj_id_54</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6434303508563475</v>
+        <v>0.6993857949972153</v>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -769,14 +769,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>obj_id_59</t>
+          <t>obj_id_55</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6975174713879824</v>
+        <v>0.6436559029600837</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>obj_id_61</t>
+          <t>obj_id_58</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6690136225273212</v>
+        <v>0.6975174713879824</v>
       </c>
       <c r="C20" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>obj_id_64</t>
+          <t>obj_id_60</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5415577728573869</v>
+        <v>0.4708514786683596</v>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -823,14 +823,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>obj_id_65</t>
+          <t>obj_id_63</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5851225286722184</v>
+        <v>0.5947759435935454</v>
       </c>
       <c r="C22" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -841,32 +841,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>obj_id_66</t>
+          <t>obj_id_64</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7698330680529276</v>
+        <v>0.5204212413384364</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>obj_id_73</t>
+          <t>obj_id_65</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7156814853350322</v>
+        <v>0.7698330680529276</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>obj_id_86</t>
+          <t>obj_id_74</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7450837716460228</v>
+        <v>0.7156814853350322</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -895,50 +895,50 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>obj_id_87</t>
+          <t>obj_id_85</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6178154706334075</v>
+        <v>0.7450837716460228</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>obj_id_93</t>
+          <t>obj_id_86</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8142146070798238</v>
+        <v>0.6178794164831439</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>obj_id_98</t>
+          <t>obj_id_93</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.7059681888888863</v>
+        <v>0.8142146070798238</v>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -949,32 +949,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>obj_id_105</t>
+          <t>obj_id_97</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5245926588773727</v>
+        <v>0.7045382068437689</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>obj_id_110</t>
+          <t>obj_id_103</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.7733720541000366</v>
+        <v>0.7874066352844238</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -985,14 +985,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>obj_id_115</t>
+          <t>obj_id_104</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7055864674704415</v>
+        <v>0.7958368062973022</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1003,68 +1003,68 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>obj_id_124</t>
+          <t>obj_id_116</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6527857134739558</v>
+        <v>0.7135028924260821</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>obj_id_127</t>
+          <t>obj_id_118</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6723238825798035</v>
+        <v>0.7100942879915237</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>obj_id_130</t>
+          <t>obj_id_122</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6812458104557462</v>
+        <v>0.8255053162574768</v>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>obj_id_131</t>
+          <t>obj_id_128</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5536860700915841</v>
+        <v>0.6696391999721527</v>
       </c>
       <c r="C35" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1075,104 +1075,104 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>obj_id_139</t>
+          <t>obj_id_129</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5370205144087473</v>
+        <v>0.7880255254832181</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>obj_id_142</t>
+          <t>obj_id_130</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7828736982562325</v>
+        <v>0.6749771051108837</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>obj_id_146</t>
+          <t>obj_id_141</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7957181258079333</v>
+        <v>0.5370205144087473</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>obj_id_148</t>
+          <t>obj_id_142</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7575399029254913</v>
+        <v>0.5118095030387243</v>
       </c>
       <c r="C39" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>obj_id_153</t>
+          <t>obj_id_145</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5801698118448257</v>
+        <v>0.7899519557302649</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>obj_id_166</t>
+          <t>obj_id_150</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.8410711213946342</v>
+        <v>0.7994738389284183</v>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1183,50 +1183,50 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>obj_id_167</t>
+          <t>obj_id_152</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6523535810410976</v>
+        <v>0.70803274001394</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>obj_id_168</t>
+          <t>obj_id_155</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.6577026396989822</v>
+        <v>0.7552316257586846</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>obj_id_170</t>
+          <t>obj_id_167</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.7430754057739092</v>
+        <v>0.8539147675037384</v>
       </c>
       <c r="C44" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.7545478701591491</v>
+        <v>0.7088889394487653</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1255,14 +1255,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>obj_id_175</t>
+          <t>obj_id_173</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7324267938023522</v>
+        <v>0.8091654591262341</v>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1273,14 +1273,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>obj_id_180</t>
+          <t>obj_id_174</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5715361312031746</v>
+        <v>0.6161767641703287</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>obj_id_181</t>
+          <t>obj_id_176</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8420766353607178</v>
+        <v>0.7459365030129751</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>obj_id_190</t>
+          <t>obj_id_179</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9062231112928951</v>
+        <v>0.7797989919781685</v>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1327,50 +1327,50 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>obj_id_191</t>
+          <t>obj_id_185</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.7014544937345717</v>
+        <v>0.6148138046264648</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>obj_id_193</t>
+          <t>obj_id_197</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.660229868359036</v>
+        <v>0.9062231112928951</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>obj_id_196</t>
+          <t>obj_id_198</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.7446580204096708</v>
+        <v>0.7032519314024184</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1381,29 +1381,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>obj_id_197</t>
+          <t>obj_id_199</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.7284285873174667</v>
+        <v>0.660229868359036</v>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>obj_id_199</t>
+          <t>obj_id_202</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6765507360299429</v>
+        <v>0.6777650366226832</v>
       </c>
       <c r="C54" t="n">
         <v>13</v>
@@ -1417,32 +1417,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>obj_id_200</t>
+          <t>obj_id_203</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7597280523993752</v>
+        <v>0.6895920224487782</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>obj_id_202</t>
+          <t>obj_id_205</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.7281799051496718</v>
+        <v>0.7447356852618131</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1453,18 +1453,18 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>obj_id_205</t>
+          <t>obj_id_206</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6807470747402736</v>
+        <v>0.7263683378696442</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.7758654356002808</v>
+        <v>0.7452523410320282</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1489,16 +1489,70 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>obj_id_211</t>
+          <t>obj_id_210</t>
         </is>
       </c>
       <c r="B59" t="n">
+        <v>0.6798173636198044</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Images may contain different objects</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>obj_id_212</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7050598740577698</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Images likely contain the same object</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>obj_id_216</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7783421277999878</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Images likely contain the same object</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>obj_id_217</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
         <v>0.5304683446884155</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C62" t="n">
         <v>2</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Images may contain different objects</t>
         </is>
@@ -1542,7 +1596,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8133971291866029</v>
+        <v>0.8122569894463988</v>
       </c>
     </row>
     <row r="3">
@@ -1613,7 +1667,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1244</v>
+        <v>1211</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1820,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1828,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1844,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1852,7 +1906,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1860,7 +1914,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1876,7 +1930,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1948,7 +2002,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1956,7 +2010,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2084,7 +2138,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2092,7 +2146,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2100,7 +2154,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -2116,7 +2170,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2124,7 +2178,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -2148,7 +2202,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2156,7 +2210,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2164,7 +2218,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -2172,7 +2226,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2180,7 +2234,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2188,7 +2242,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2196,7 +2250,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2204,7 +2258,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2212,7 +2266,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -2220,7 +2274,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -2228,7 +2282,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -2236,7 +2290,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -2252,7 +2306,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -2260,7 +2314,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -2268,7 +2322,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2276,7 +2330,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -2284,7 +2338,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -2292,7 +2346,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -2300,7 +2354,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2308,7 +2362,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -2316,7 +2370,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -2324,7 +2378,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -2332,7 +2386,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -2340,7 +2394,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -2348,7 +2402,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2356,7 +2410,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -2380,7 +2434,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -2396,7 +2450,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -2404,7 +2458,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -2412,7 +2466,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2420,7 +2474,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -2428,7 +2482,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -2436,7 +2490,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2444,7 +2498,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -2452,7 +2506,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -2484,7 +2538,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2492,7 +2546,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -2508,7 +2562,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2516,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -2524,7 +2578,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
@@ -2532,7 +2586,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -2556,7 +2610,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -2572,7 +2626,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -2580,7 +2634,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
@@ -2668,7 +2722,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -2676,7 +2730,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -2684,7 +2738,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
@@ -2692,7 +2746,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
@@ -2700,7 +2754,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -2708,7 +2762,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -2732,7 +2786,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
@@ -2804,7 +2858,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -2863,7 +2917,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -2914,7 +2968,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.1721377372742</v>
+        <v>118.9346609115601</v>
       </c>
     </row>
   </sheetData>

--- a/video_prediction/media/results/detection_and_analysis_results_yolov8x.xlsx
+++ b/video_prediction/media/results/detection_and_analysis_results_yolov8x.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,32 +463,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>obj_id_2</t>
+          <t>obj_id_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6311811855861119</v>
+        <v>0.7065789291152248</v>
       </c>
       <c r="C2" t="n">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>obj_id_5</t>
+          <t>obj_id_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.684879696646402</v>
+        <v>0.6757884802818298</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,32 +499,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>obj_id_9</t>
+          <t>obj_id_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8089910248915354</v>
+        <v>0.6719889845699072</v>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>obj_id_10</t>
+          <t>obj_id_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7220061106243353</v>
+        <v>0.7447364709594033</v>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -535,14 +535,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>obj_id_11</t>
+          <t>obj_id_17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6063535745079452</v>
+        <v>0.6885986030101776</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>obj_id_14</t>
+          <t>obj_id_24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8096002170017788</v>
+        <v>0.8042797759959572</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -571,50 +571,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>obj_id_16</t>
+          <t>obj_id_26</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7214509546756744</v>
+        <v>0.5500507285961738</v>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>obj_id_21</t>
+          <t>obj_id_33</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6245517464060533</v>
+        <v>0.7075610721812529</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>obj_id_24</t>
+          <t>obj_id_34</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6665910383065542</v>
+        <v>0.6659186416202121</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>obj_id_27</t>
+          <t>obj_id_39</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6714094579219818</v>
+        <v>0.6616557747125625</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -643,14 +643,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>obj_id_40</t>
+          <t>obj_id_41</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6793364385763804</v>
+        <v>0.6553302533698805</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -665,28 +665,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7309336582752498</v>
+        <v>0.6398827234903971</v>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>obj_id_43</t>
+          <t>obj_id_45</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7069551710571561</v>
+        <v>0.8117302230426243</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -697,14 +697,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>obj_id_45</t>
+          <t>obj_id_49</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6741778448570607</v>
+        <v>0.6931641578674317</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -715,32 +715,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>obj_id_47</t>
+          <t>obj_id_61</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5945865168021276</v>
+        <v>0.729006327688694</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>obj_id_52</t>
+          <t>obj_id_71</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7149575583893677</v>
+        <v>0.7401811821120126</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -751,86 +751,86 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>obj_id_54</t>
+          <t>obj_id_77</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6993857949972153</v>
+        <v>0.7369193434715271</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>obj_id_55</t>
+          <t>obj_id_78</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6436559029600837</v>
+        <v>0.7211774289608002</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>obj_id_58</t>
+          <t>obj_id_79</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6975174713879824</v>
+        <v>0.7635193296841213</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>obj_id_60</t>
+          <t>obj_id_89</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4708514786683596</v>
+        <v>0.7387763460477194</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>obj_id_63</t>
+          <t>obj_id_91</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5947759435935454</v>
+        <v>0.6562625964482626</v>
       </c>
       <c r="C22" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -841,14 +841,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>obj_id_64</t>
+          <t>obj_id_96</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5204212413384364</v>
+        <v>0.5741793692111969</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -859,14 +859,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>obj_id_65</t>
+          <t>obj_id_99</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7698330680529276</v>
+        <v>0.7999467551708221</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>obj_id_74</t>
+          <t>obj_id_108</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7156814853350322</v>
+        <v>0.8453173438707987</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -895,86 +895,86 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>obj_id_85</t>
+          <t>obj_id_112</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7450837716460228</v>
+        <v>0.657372772693634</v>
       </c>
       <c r="C26" t="n">
         <v>5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>obj_id_86</t>
+          <t>obj_id_114</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6178794164831439</v>
+        <v>0.7360551208257675</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>obj_id_93</t>
+          <t>obj_id_120</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8142146070798238</v>
+        <v>0.5828476399183273</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>obj_id_97</t>
+          <t>obj_id_127</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.7045382068437689</v>
+        <v>0.6921678781509399</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>obj_id_103</t>
+          <t>obj_id_133</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.7874066352844238</v>
+        <v>0.8072926163673401</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -985,14 +985,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>obj_id_104</t>
+          <t>obj_id_160</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7958368062973022</v>
+        <v>0.7738023586571217</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>obj_id_116</t>
+          <t>obj_id_163</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.7135028924260821</v>
+        <v>0.8271681606769562</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1021,14 +1021,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>obj_id_118</t>
+          <t>obj_id_164</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.7100942879915237</v>
+        <v>0.8128156761328379</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1039,50 +1039,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>obj_id_122</t>
+          <t>obj_id_166</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8255053162574768</v>
+        <v>0.6415394246578217</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Images likely contain the same object</t>
+          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>obj_id_128</t>
+          <t>obj_id_169</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6696391999721527</v>
+        <v>0.9108100182869855</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
+          <t>Images likely contain the same object</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>obj_id_129</t>
+          <t>obj_id_170</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.7880255254832181</v>
+        <v>0.8146523833274841</v>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1093,14 +1093,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>obj_id_130</t>
+          <t>obj_id_175</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6749771051108837</v>
+        <v>0.6323335468769073</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1111,450 +1111,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>obj_id_141</t>
+          <t>obj_id_185</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5370205144087473</v>
+        <v>0.7653913497924805</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>obj_id_142</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5118095030387243</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>obj_id_145</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.7899519557302649</v>
-      </c>
-      <c r="C40" t="n">
-        <v>12</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>obj_id_150</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.7994738389284183</v>
-      </c>
-      <c r="C41" t="n">
-        <v>40</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>obj_id_152</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.70803274001394</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>obj_id_155</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.7552316257586846</v>
-      </c>
-      <c r="C43" t="n">
-        <v>14</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>obj_id_167</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.8539147675037384</v>
-      </c>
-      <c r="C44" t="n">
-        <v>19</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>obj_id_171</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.7088889394487653</v>
-      </c>
-      <c r="C45" t="n">
-        <v>15</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>obj_id_173</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.8091654591262341</v>
-      </c>
-      <c r="C46" t="n">
-        <v>17</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>obj_id_174</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.6161767641703287</v>
-      </c>
-      <c r="C47" t="n">
-        <v>19</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>obj_id_176</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.7459365030129751</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>obj_id_179</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.7797989919781685</v>
-      </c>
-      <c r="C49" t="n">
-        <v>25</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>obj_id_185</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.6148138046264648</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>obj_id_197</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.9062231112928951</v>
-      </c>
-      <c r="C51" t="n">
-        <v>18</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>obj_id_198</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.7032519314024184</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>obj_id_199</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.660229868359036</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>obj_id_202</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.6777650366226832</v>
-      </c>
-      <c r="C54" t="n">
-        <v>13</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>obj_id_203</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.6895920224487782</v>
-      </c>
-      <c r="C55" t="n">
-        <v>13</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>obj_id_205</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.7447356852618131</v>
-      </c>
-      <c r="C56" t="n">
-        <v>12</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>obj_id_206</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.7263683378696442</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>obj_id_209</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.7452523410320282</v>
-      </c>
-      <c r="C58" t="n">
-        <v>11</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>obj_id_210</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.6798173636198044</v>
-      </c>
-      <c r="C59" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>obj_id_212</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.7050598740577698</v>
-      </c>
-      <c r="C60" t="n">
-        <v>6</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>obj_id_216</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.7783421277999878</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Images likely contain the same object</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>obj_id_217</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.5304683446884155</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Images may contain different objects</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1164,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8122569894463988</v>
+        <v>0.8989564774751845</v>
       </c>
     </row>
     <row r="3">
@@ -1616,7 +1184,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7579952267303103</v>
+        <v>0.8817748659916617</v>
       </c>
     </row>
     <row r="5">
@@ -1626,7 +1194,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8623404833016562</v>
+        <v>0.9371736034182624</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1235,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1211</v>
+        <v>571</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1680,10 +1248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1014</v>
+        <v>397</v>
       </c>
       <c r="C3" t="n">
-        <v>3176</v>
+        <v>2961</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1762,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1770,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1778,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1786,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1794,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1802,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1810,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1818,7 +1386,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1826,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1834,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1842,7 +1410,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1850,7 +1418,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1858,7 +1426,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1866,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1874,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1882,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1890,7 +1458,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1898,7 +1466,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1906,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1914,7 +1482,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1922,7 +1490,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1930,7 +1498,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1938,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1946,7 +1514,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1954,7 +1522,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1962,7 +1530,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1970,7 +1538,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1978,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1986,7 +1554,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1994,7 +1562,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2002,7 +1570,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2010,7 +1578,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2018,7 +1586,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2026,7 +1594,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2050,7 +1618,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2058,7 +1626,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2066,7 +1634,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2074,7 +1642,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2082,7 +1650,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2090,7 +1658,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2098,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2106,7 +1674,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2114,7 +1682,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2122,7 +1690,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2130,7 +1698,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2138,7 +1706,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2146,7 +1714,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2154,7 +1722,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2162,7 +1730,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2170,7 +1738,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2178,7 +1746,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2186,7 +1754,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2194,7 +1762,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2202,7 +1770,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2210,7 +1778,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2218,7 +1786,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2234,7 +1802,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2242,7 +1810,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2250,7 +1818,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -2266,7 +1834,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2274,7 +1842,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2282,7 +1850,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -2290,7 +1858,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -2298,7 +1866,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -2306,7 +1874,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2314,7 +1882,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -2322,7 +1890,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2330,7 +1898,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2338,7 +1906,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2346,7 +1914,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -2354,7 +1922,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -2362,7 +1930,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -2370,7 +1938,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -2378,7 +1946,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2386,7 +1954,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2394,7 +1962,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -2402,7 +1970,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2410,7 +1978,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -2418,7 +1986,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -2426,7 +1994,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -2434,7 +2002,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -2442,7 +2010,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2450,7 +2018,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -2466,7 +2034,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -2474,7 +2042,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -2482,7 +2050,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2490,7 +2058,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -2498,7 +2066,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -2506,7 +2074,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2514,7 +2082,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -2522,7 +2090,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -2530,7 +2098,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -2538,7 +2106,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -2546,7 +2114,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2554,7 +2122,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -2562,7 +2130,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -2570,7 +2138,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -2578,7 +2146,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -2586,7 +2154,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -2594,7 +2162,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
@@ -2602,7 +2170,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -2610,7 +2178,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -2618,7 +2186,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -2626,7 +2194,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -2634,7 +2202,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -2642,7 +2210,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -2650,7 +2218,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -2658,7 +2226,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
@@ -2666,7 +2234,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -2674,7 +2242,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2682,7 +2250,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -2690,7 +2258,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -2698,7 +2266,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -2706,7 +2274,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -2714,7 +2282,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2722,7 +2290,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2730,7 +2298,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2738,7 +2306,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -2746,7 +2314,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -2754,7 +2322,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -2762,7 +2330,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -2770,7 +2338,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -2778,7 +2346,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -2786,7 +2354,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
@@ -2794,7 +2362,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
@@ -2802,7 +2370,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -2810,7 +2378,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -2818,7 +2386,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -2826,7 +2394,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -2834,7 +2402,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
@@ -2842,7 +2410,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -2850,7 +2418,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -2858,7 +2426,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -2866,7 +2434,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2475,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2917,7 +2485,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2968,7 +2536,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.9346609115601</v>
+        <v>69.28699564933777</v>
       </c>
     </row>
   </sheetData>
